--- a/outputs/mod_1.xlsx
+++ b/outputs/mod_1.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.374453847460539</v>
+        <v>-0.6298539511716523</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1021490457400299</v>
+        <v>0.04681057634845418</v>
       </c>
       <c r="F2" t="n">
-        <v>-13.45537628377395</v>
+        <v>-13.45537697470482</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.564340470949233</v>
+        <v>0.7168708164554608</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07840575337396001</v>
+        <v>0.03593003034300835</v>
       </c>
       <c r="F3" t="n">
-        <v>19.95185816897946</v>
+        <v>19.95185669513238</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.102492695494479</v>
+        <v>-0.04099719894753559</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1553197476823502</v>
+        <v>0.06212790580339721</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6598819340351386</v>
+        <v>-0.6598838061155737</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.08114430154274208</v>
+        <v>-0.04057224171642241</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1079488473006222</v>
+        <v>0.05397442377956592</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7516921539399739</v>
+        <v>-0.7516938371055401</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.847172788901975</v>
+        <v>-1.394824247283793</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1148467549175259</v>
+        <v>0.05626320121575621</v>
       </c>
       <c r="F6" t="n">
-        <v>-24.79105997332354</v>
+        <v>-24.79105733665897</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.6112019017233205</v>
+        <v>-0.3056010439065223</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09977693497925436</v>
+        <v>0.04988847756099592</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.12568327389894</v>
+        <v>-6.125683902317535</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2.576444221950689</v>
+        <v>-1.180675251407733</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1942392818570304</v>
+        <v>0.08901163056664894</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.26428000205992</v>
+        <v>-13.26428067760969</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3.303651718874658</v>
+        <v>-1.615838904370469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0948972371513883</v>
+        <v>0.04641489666798251</v>
       </c>
       <c r="F9" t="n">
-        <v>-34.81293890152341</v>
+        <v>-34.81293766371975</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.0305509344779634</v>
+        <v>0.01221555394352452</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0986298297140525</v>
+        <v>0.03943639002268316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3097534951295833</v>
+        <v>0.3097533505601891</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.428849535283514</v>
+        <v>0.1967491949231515</v>
       </c>
       <c r="E11" t="n">
-        <v>0.06817243108833346</v>
+        <v>0.03127640468619041</v>
       </c>
       <c r="F11" t="n">
-        <v>6.290659265588435</v>
+        <v>6.290658945528446</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-15.67780289121195</v>
+        <v>-15.67780329001359</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7903474722018087</v>
+        <v>0.7903475010227574</v>
       </c>
       <c r="F12" t="n">
-        <v>-19.83659522252354</v>
+        <v>-19.83659500374906</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-1.374372009294201</v>
+        <v>-0.6298127248964789</v>
       </c>
       <c r="E2" t="n">
-        <v>9.786693910218702</v>
+        <v>2.495263072737643</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1404327162883025</v>
+        <v>-0.2524033364568204</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1.564365673730331</v>
+        <v>0.7168392669800974</v>
       </c>
       <c r="E3" t="n">
-        <v>6.643017070441291</v>
+        <v>1.646242081828275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2354902384175886</v>
+        <v>0.4354397660543301</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.1027447592946605</v>
+        <v>-0.04130401391360705</v>
       </c>
       <c r="E4" t="n">
-        <v>40.79862517870465</v>
+        <v>13.78200531080521</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002518338763735828</v>
+        <v>-0.002996952401493007</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.08110281127448059</v>
+        <v>-0.04056815327006107</v>
       </c>
       <c r="E5" t="n">
-        <v>13.51201090204526</v>
+        <v>3.211991562666574</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.006002275446817792</v>
+        <v>-0.01263021788151326</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-2.847247587726378</v>
+        <v>-1.394823976724755</v>
       </c>
       <c r="E6" t="n">
-        <v>19.22024144808289</v>
+        <v>4.576890897261777</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1481379719093162</v>
+        <v>-0.3047535997764855</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.6113103599159648</v>
+        <v>-0.3056385326848554</v>
       </c>
       <c r="E7" t="n">
-        <v>18.24797166135547</v>
+        <v>4.946203746084565</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03350018134950108</v>
+        <v>-0.06179254805805362</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-2.576477204185154</v>
+        <v>-1.180868978861981</v>
       </c>
       <c r="E8" t="n">
-        <v>29.52374676679045</v>
+        <v>9.09192546265604</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.08726796177114227</v>
+        <v>-0.1298810668556681</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1015,13 +1015,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-3.303619542925475</v>
+        <v>-1.615760397644295</v>
       </c>
       <c r="E9" t="n">
-        <v>6.403068468335272</v>
+        <v>2.895844240983503</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5159431855621528</v>
+        <v>-0.5579583234406078</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.03071580850014919</v>
+        <v>0.01244066922811592</v>
       </c>
       <c r="E10" t="n">
-        <v>23.67090304547635</v>
+        <v>9.165020150368335</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001297618787130268</v>
+        <v>0.001357407733316979</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.4289452486198949</v>
+        <v>0.1968860032523408</v>
       </c>
       <c r="E11" t="n">
-        <v>12.60347998947969</v>
+        <v>5.614120228568926</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03403387389656997</v>
+        <v>0.03506978747096198</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-15.67612453843647</v>
+        <v>-15.67170166209239</v>
       </c>
       <c r="E12" t="n">
-        <v>245.8525913051977</v>
+        <v>242.2503988835918</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06376229127874583</v>
+        <v>-0.06469216040227485</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1184,34 +1184,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.28427836091954</v>
+        <v>-7.284062730734163</v>
       </c>
       <c r="D2" t="n">
-        <v>3.881461506476993</v>
+        <v>3.845108163474156</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03869207427475575</v>
+        <v>0.04368620114201612</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6496439707673959</v>
+        <v>0.6506849789116717</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1908077328822721</v>
+        <v>0.209067901009576</v>
       </c>
       <c r="H2" t="n">
-        <v>1.087020144970863</v>
+        <v>1.228973513131227</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03930542121617472</v>
+        <v>0.04645032349698435</v>
       </c>
       <c r="J2" t="n">
-        <v>1.147709868953354</v>
+        <v>1.136011568889773</v>
       </c>
       <c r="K2" t="n">
-        <v>0.005467811170484248</v>
+        <v>0.006031736429317299</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2438180106090898</v>
+        <v>0.2443074425077465</v>
       </c>
     </row>
     <row r="3">
@@ -1222,34 +1222,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.134755523101859</v>
+        <v>1.145461773107203</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.6133918248445</v>
+        <v>-3.613449813635297</v>
       </c>
       <c r="E3" t="n">
-        <v>0.02716638015060339</v>
+        <v>0.03097111988721308</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4674821820568973</v>
+        <v>0.4726705056152977</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1358996914993683</v>
+        <v>0.1503152263566228</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7753551994438508</v>
+        <v>0.8849035858354614</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03083969251581713</v>
+        <v>0.03679020836922459</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8603541249018593</v>
+        <v>0.8596473739898222</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004278325653911751</v>
+        <v>0.004768010263826659</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1772890013124881</v>
+        <v>0.17931370059626</v>
       </c>
     </row>
     <row r="4">
@@ -1260,34 +1260,34 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.780805847285506</v>
+        <v>2.462623291911547</v>
       </c>
       <c r="D4" t="n">
-        <v>6.68007744964066</v>
+        <v>5.86055264946161</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.18475318614382</v>
+        <v>-16.18431466644091</v>
       </c>
       <c r="F4" t="n">
-        <v>1.340837882721981</v>
+        <v>1.18936376305048</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4805340079043212</v>
+        <v>0.4662944670901873</v>
       </c>
       <c r="H4" t="n">
-        <v>2.015582145342179</v>
+        <v>2.018105769957763</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1163810231132189</v>
+        <v>0.1217981605776631</v>
       </c>
       <c r="J4" t="n">
-        <v>2.187348528789525</v>
+        <v>1.917397698661421</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01663591254537232</v>
+        <v>0.01628676273352685</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5659803324072188</v>
+        <v>0.5022163353194552</v>
       </c>
     </row>
     <row r="5">
@@ -1298,34 +1298,34 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.910059779940738</v>
+        <v>1.906873960444347</v>
       </c>
       <c r="D5" t="n">
-        <v>4.701499488293683</v>
+        <v>4.649836382372436</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05484324679737195</v>
+        <v>0.06183184531682227</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.16883562087437</v>
+        <v>-10.16854165668052</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2650086832833408</v>
+        <v>0.2898980476737131</v>
       </c>
       <c r="H5" t="n">
-        <v>1.292576871521625</v>
+        <v>1.458974403749395</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0643511282419507</v>
+        <v>0.07592456621557214</v>
       </c>
       <c r="J5" t="n">
-        <v>1.501828323716019</v>
+        <v>1.484096203136816</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008897298981908445</v>
+        <v>0.009814955557170482</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3693515229440309</v>
+        <v>0.3694764181356686</v>
       </c>
     </row>
     <row r="6">
@@ -1336,34 +1336,34 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.453993537330567</v>
+        <v>2.239486935098193</v>
       </c>
       <c r="D6" t="n">
-        <v>5.978510294220995</v>
+        <v>5.404955343339308</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08598985400454655</v>
+        <v>0.08860693918148767</v>
       </c>
       <c r="F6" t="n">
-        <v>1.159225241964965</v>
+        <v>1.05963246962187</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.0671562953935</v>
+        <v>-14.06668778405841</v>
       </c>
       <c r="H6" t="n">
-        <v>1.832608000650267</v>
+        <v>1.890858264557189</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1097232949281791</v>
+        <v>0.1183329851341352</v>
       </c>
       <c r="J6" t="n">
-        <v>1.957903286160462</v>
+        <v>1.768609085023827</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01195940735841095</v>
+        <v>0.01205916950312023</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4767447802242009</v>
+        <v>0.4359339888131644</v>
       </c>
     </row>
     <row r="7">
@@ -1374,34 +1374,34 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.967557326162291</v>
+        <v>1.740160980100923</v>
       </c>
       <c r="D7" t="n">
-        <v>4.800438671272706</v>
+        <v>4.206015016362072</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05075862005920372</v>
+        <v>0.05069173145267744</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7957313079370928</v>
+        <v>0.7049257397309512</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2579186223535108</v>
+        <v>0.2499451448776479</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.802920316602089</v>
+        <v>-9.802448199208973</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05894518502682081</v>
+        <v>0.06161026181387065</v>
       </c>
       <c r="J7" t="n">
-        <v>1.526522135738339</v>
+        <v>1.336382945682082</v>
       </c>
       <c r="K7" t="n">
-        <v>0.007161030884795159</v>
+        <v>0.00699144590759195</v>
       </c>
       <c r="L7" t="n">
-        <v>0.3372224773612694</v>
+        <v>0.2988466354416683</v>
       </c>
     </row>
     <row r="8">
@@ -1412,34 +1412,34 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.592296329177755</v>
+        <v>2.193410779733665</v>
       </c>
       <c r="D8" t="n">
-        <v>6.957133901990881</v>
+        <v>5.831649839482687</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1067864238096741</v>
+        <v>0.1020277380297818</v>
       </c>
       <c r="F8" t="n">
-        <v>1.443478529059937</v>
+        <v>1.223382722638954</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5626394762642336</v>
+        <v>0.521645994411313</v>
       </c>
       <c r="H8" t="n">
-        <v>2.147764251754219</v>
+        <v>2.054647773298694</v>
       </c>
       <c r="I8" t="n">
-        <v>-16.82289427628166</v>
+        <v>-16.82159279982926</v>
       </c>
       <c r="J8" t="n">
-        <v>2.348522496930538</v>
+        <v>1.966965021429772</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01915955748090118</v>
+        <v>0.01791780791923031</v>
       </c>
       <c r="L8" t="n">
-        <v>0.6437112035824031</v>
+        <v>0.5457413845012178</v>
       </c>
     </row>
     <row r="9">
@@ -1450,34 +1450,34 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.603862857353301</v>
+        <v>1.620572892196893</v>
       </c>
       <c r="D9" t="n">
-        <v>4.112451238637007</v>
+        <v>4.11655685110253</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0425318508230324</v>
+        <v>0.04852262817683081</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7138139138097679</v>
+        <v>0.7224314811537268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2127437480615569</v>
+        <v>0.235535565047451</v>
       </c>
       <c r="H9" t="n">
-        <v>1.178560456642994</v>
+        <v>1.346386776317128</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04976848521454794</v>
+        <v>0.05942254144582516</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.175708001813456</v>
+        <v>-8.176951939555787</v>
       </c>
       <c r="K9" t="n">
-        <v>0.006438539138476304</v>
+        <v>0.007177884416303537</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2568558376049456</v>
+        <v>0.2600546971770525</v>
       </c>
     </row>
     <row r="10">
@@ -1488,34 +1488,34 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.596102891320427</v>
+        <v>2.347204447838503</v>
       </c>
       <c r="D10" t="n">
-        <v>6.953734541391004</v>
+        <v>6.228359988559768</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1101175711892871</v>
+        <v>0.1124319211301631</v>
       </c>
       <c r="F10" t="n">
-        <v>1.439124496098636</v>
+        <v>1.303303897582796</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4422048629872833</v>
+        <v>0.438091461943979</v>
       </c>
       <c r="H10" t="n">
-        <v>1.879693466439436</v>
+        <v>1.921448118513919</v>
       </c>
       <c r="I10" t="n">
-        <v>0.138198393553521</v>
+        <v>0.1476597775068544</v>
       </c>
       <c r="J10" t="n">
-        <v>2.187859502741078</v>
+        <v>1.958029400078238</v>
       </c>
       <c r="K10" t="n">
-        <v>-16.24936482731664</v>
+        <v>-16.25019868592892</v>
       </c>
       <c r="L10" t="n">
-        <v>0.503096392439085</v>
+        <v>0.4557669310733034</v>
       </c>
     </row>
     <row r="11">
@@ -1526,34 +1526,34 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.201313947113125</v>
+        <v>2.196895420151962</v>
       </c>
       <c r="D11" t="n">
-        <v>5.474718060838526</v>
+        <v>5.412702036661822</v>
       </c>
       <c r="E11" t="n">
-        <v>0.07109275968692801</v>
+        <v>0.08011425879528768</v>
       </c>
       <c r="F11" t="n">
-        <v>1.134146079883235</v>
+        <v>1.133726253798989</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3346594335032914</v>
+        <v>0.3659588408325053</v>
       </c>
       <c r="H11" t="n">
-        <v>1.68202702916092</v>
+        <v>1.897903617930126</v>
       </c>
       <c r="I11" t="n">
-        <v>0.08812284968016883</v>
+        <v>0.1039269887247838</v>
       </c>
       <c r="J11" t="n">
-        <v>1.659429937794009</v>
+        <v>1.639274083001008</v>
       </c>
       <c r="K11" t="n">
-        <v>0.009553000190676149</v>
+        <v>0.01053190500995038</v>
       </c>
       <c r="L11" t="n">
-        <v>-12.65549567365162</v>
+        <v>-12.65511083849442</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/mod_1.xlsx
+++ b/outputs/mod_1.xlsx
@@ -482,13 +482,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6298539511716523</v>
+        <v>-0.6298539441090106</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04681057634845418</v>
+        <v>0.0468058563776638</v>
       </c>
       <c r="F2" t="n">
-        <v>-13.45537697470482</v>
+        <v>-13.45673368364184</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,13 +511,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7168708164554608</v>
+        <v>0.7168708153747766</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03593003034300835</v>
+        <v>0.03592910797854363</v>
       </c>
       <c r="F3" t="n">
-        <v>19.95185669513238</v>
+        <v>19.95236886490146</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.04099719894753559</v>
+        <v>-0.04099718492011167</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06212790580339721</v>
+        <v>0.06213065838790115</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6598838061155737</v>
+        <v>-0.6598543454047021</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -565,13 +565,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.04057224171642241</v>
+        <v>-0.04057222640817006</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05397442377956592</v>
+        <v>0.05397714872462187</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7516938371055401</v>
+        <v>-0.7516556055074265</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -590,13 +590,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.394824247283793</v>
+        <v>-1.394824231576675</v>
       </c>
       <c r="E6" t="n">
-        <v>0.05626320121575621</v>
+        <v>0.05626227375650516</v>
       </c>
       <c r="F6" t="n">
-        <v>-24.79105733665897</v>
+        <v>-24.791465727341</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3056010439065223</v>
+        <v>-0.3056010400771706</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04988847756099592</v>
+        <v>0.04988741520991929</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.125683902317535</v>
+        <v>-6.125814271820739</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -648,13 +648,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.180675251407733</v>
+        <v>-1.180675209323679</v>
       </c>
       <c r="E8" t="n">
-        <v>0.08901163056664894</v>
+        <v>0.08900825615212957</v>
       </c>
       <c r="F8" t="n">
-        <v>-13.26428067760969</v>
+        <v>-13.26478307029983</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.615838904370469</v>
+        <v>-1.615838879431886</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04641489666798251</v>
+        <v>0.04640947383982843</v>
       </c>
       <c r="F9" t="n">
-        <v>-34.81293766371975</v>
+        <v>-34.817004928963</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -706,13 +706,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01221555394352452</v>
+        <v>0.01221555001893631</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03943639002268316</v>
+        <v>0.03943295826250088</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3097533505601891</v>
+        <v>0.30978020816036</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -731,13 +731,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1967491949231515</v>
+        <v>0.1967492019888593</v>
       </c>
       <c r="E11" t="n">
-        <v>0.03127640468619041</v>
+        <v>0.03127237732615332</v>
       </c>
       <c r="F11" t="n">
-        <v>6.290658945528446</v>
+        <v>6.29146930330482</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -760,13 +760,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-15.67780329001359</v>
+        <v>-15.677803197499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7903475010227574</v>
+        <v>0.7903781291307715</v>
       </c>
       <c r="F12" t="n">
-        <v>-19.83659500374906</v>
+        <v>-19.8358261946606</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -840,13 +840,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>-0.6298127248964789</v>
+        <v>-0.6298331260308373</v>
       </c>
       <c r="E2" t="n">
-        <v>2.495263072737643</v>
+        <v>2.495542876244599</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2524033364568204</v>
+        <v>-0.2523832116956602</v>
       </c>
       <c r="G2" t="inlineStr"/>
     </row>
@@ -865,13 +865,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.7168392669800974</v>
+        <v>0.7168558092661852</v>
       </c>
       <c r="E3" t="n">
-        <v>1.646242081828275</v>
+        <v>1.646482510445814</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4354397660543301</v>
+        <v>0.4353862277420025</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -890,13 +890,13 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>-0.04130401391360705</v>
+        <v>-0.04117057891747422</v>
       </c>
       <c r="E4" t="n">
-        <v>13.78200531080521</v>
+        <v>13.7839592106218</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.002996952401493007</v>
+        <v>-0.002986847123412012</v>
       </c>
       <c r="G4" t="inlineStr"/>
     </row>
@@ -915,13 +915,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>-0.04056815327006107</v>
+        <v>-0.04056999105670323</v>
       </c>
       <c r="E5" t="n">
-        <v>3.211991562666574</v>
+        <v>3.212080638410967</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.01263021788151326</v>
+        <v>-0.01263043977525216</v>
       </c>
       <c r="G5" t="inlineStr"/>
     </row>
@@ -940,13 +940,13 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>-1.394823976724755</v>
+        <v>-1.394848892724592</v>
       </c>
       <c r="E6" t="n">
-        <v>4.576890897261777</v>
+        <v>4.577319255350664</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3047535997764855</v>
+        <v>-0.3047305234595734</v>
       </c>
       <c r="G6" t="inlineStr"/>
     </row>
@@ -965,13 +965,13 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>-0.3056385326848554</v>
+        <v>-0.3056446162100423</v>
       </c>
       <c r="E7" t="n">
-        <v>4.946203746084565</v>
+        <v>4.946841975574183</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.06179254805805362</v>
+        <v>-0.06178580551374211</v>
       </c>
       <c r="G7" t="inlineStr"/>
     </row>
@@ -990,13 +990,13 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-1.180868978861981</v>
+        <v>-1.180776014778159</v>
       </c>
       <c r="E8" t="n">
-        <v>9.09192546265604</v>
+        <v>9.092729333118839</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1298810668556681</v>
+        <v>-0.1298593603218087</v>
       </c>
       <c r="G8" t="inlineStr"/>
     </row>
@@ -1015,13 +1015,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-1.615760397644295</v>
+        <v>-1.615801511946023</v>
       </c>
       <c r="E9" t="n">
-        <v>2.895844240983503</v>
+        <v>2.896615935964241</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5579583234406078</v>
+        <v>-0.5578238702219064</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
@@ -1040,13 +1040,13 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.01244066922811592</v>
+        <v>0.01233057925876517</v>
       </c>
       <c r="E10" t="n">
-        <v>9.165020150368335</v>
+        <v>9.166297879047608</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001357407733316979</v>
+        <v>0.001345208220534759</v>
       </c>
       <c r="G10" t="inlineStr"/>
     </row>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.1968860032523408</v>
+        <v>0.1968188927426529</v>
       </c>
       <c r="E11" t="n">
-        <v>5.614120228568926</v>
+        <v>5.614876716123825</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03506978747096198</v>
+        <v>0.03505311028066969</v>
       </c>
       <c r="G11" t="inlineStr"/>
     </row>
@@ -1090,13 +1090,13 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-15.67170166209239</v>
+        <v>-15.6747372181867</v>
       </c>
       <c r="E12" t="n">
-        <v>242.2503988835918</v>
+        <v>242.2877586127137</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.06469216040227485</v>
+        <v>-0.06469471387220216</v>
       </c>
       <c r="G12" t="inlineStr"/>
     </row>
@@ -1111,7 +1111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1175,6 +1175,36 @@
           <t>p_10</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>L_singleProd</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>L_multiProd</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>L_merger</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_before</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Profit_merger</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Change_welfare</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1184,34 +1214,52 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.284062730734163</v>
+        <v>-7.284062749463538</v>
       </c>
       <c r="D2" t="n">
-        <v>3.845108163474156</v>
+        <v>3.845108180555285</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04368620114201612</v>
+        <v>0.04368620372867427</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6506849789116717</v>
+        <v>0.6506849760933392</v>
       </c>
       <c r="G2" t="n">
-        <v>0.209067901009576</v>
+        <v>0.2090679064639766</v>
       </c>
       <c r="H2" t="n">
-        <v>1.228973513131227</v>
+        <v>1.228973520588984</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04645032349698435</v>
+        <v>0.04645032407952739</v>
       </c>
       <c r="J2" t="n">
-        <v>1.136011568889773</v>
+        <v>1.13601156366749</v>
       </c>
       <c r="K2" t="n">
-        <v>0.006031736429317299</v>
+        <v>0.006031736836216627</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2443074425077465</v>
+        <v>0.2443074373492168</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1372860221548268</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.343538120844915</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2237223258237078</v>
+      </c>
+      <c r="P2" t="n">
+        <v>514.3184534274432</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>283.24282175977</v>
+      </c>
+      <c r="R2" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="3">
@@ -1222,34 +1270,52 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>1.145461773107203</v>
+        <v>1.145461779295622</v>
       </c>
       <c r="D3" t="n">
-        <v>-3.613449813635297</v>
+        <v>-3.613449824972057</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03097111988721308</v>
+        <v>0.03097112165648665</v>
       </c>
       <c r="F3" t="n">
-        <v>0.4726705056152977</v>
+        <v>0.472670503857304</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1503152263566228</v>
+        <v>0.1503152301638256</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8849035858354614</v>
+        <v>0.8849035940332907</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03679020836922459</v>
+        <v>0.03679020868773402</v>
       </c>
       <c r="J3" t="n">
-        <v>0.8596473739898222</v>
+        <v>0.8596473722822514</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004768010263826659</v>
+        <v>0.00476801056686574</v>
       </c>
       <c r="L3" t="n">
-        <v>0.17931370059626</v>
+        <v>0.179313696488803</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2767438454767344</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.3878265805983729</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.2377902641901568</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1949.048753120181</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>959.7965348496623</v>
+      </c>
+      <c r="R3" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="4">
@@ -1260,34 +1326,52 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>2.462623291911547</v>
+        <v>2.462623284078439</v>
       </c>
       <c r="D4" t="n">
-        <v>5.86055264946161</v>
+        <v>5.86055261298291</v>
       </c>
       <c r="E4" t="n">
-        <v>-16.18431466644091</v>
+        <v>-16.18431455341205</v>
       </c>
       <c r="F4" t="n">
-        <v>1.18936376305048</v>
+        <v>1.189363746493902</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4662944670901873</v>
+        <v>0.4662944670707422</v>
       </c>
       <c r="H4" t="n">
-        <v>2.018105769957763</v>
+        <v>2.018105766339603</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1217981605776631</v>
+        <v>0.121798159198494</v>
       </c>
       <c r="J4" t="n">
-        <v>1.917397698661421</v>
+        <v>1.917397680836632</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01628676273352685</v>
+        <v>0.01628676338806235</v>
       </c>
       <c r="L4" t="n">
-        <v>0.5022163353194552</v>
+        <v>0.5022163181768252</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.06178822073061941</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.2544984554074241</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.1835056396097439</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.759096505875585</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4.449879702417403</v>
+      </c>
+      <c r="R4" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="5">
@@ -1298,34 +1382,52 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>1.906873960444347</v>
+        <v>1.906873962965895</v>
       </c>
       <c r="D5" t="n">
-        <v>4.649836382372436</v>
+        <v>4.649836386902059</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06183184531682227</v>
+        <v>0.06183184866340296</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.16854165668052</v>
+        <v>-10.16854165964174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2898980476737131</v>
+        <v>0.2898980537479938</v>
       </c>
       <c r="H5" t="n">
-        <v>1.458974403749395</v>
+        <v>1.458974410307457</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07592456621557214</v>
+        <v>0.07592456666573588</v>
       </c>
       <c r="J5" t="n">
-        <v>1.484096203136816</v>
+        <v>1.48409619401908</v>
       </c>
       <c r="K5" t="n">
-        <v>0.009814955557170482</v>
+        <v>0.009814956157527316</v>
       </c>
       <c r="L5" t="n">
-        <v>0.3694764181356686</v>
+        <v>0.3694764079596459</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.09834251886570258</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1172483521080152</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.1762565881532583</v>
+      </c>
+      <c r="P5" t="n">
+        <v>59.89805345782831</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>96.49346535165948</v>
+      </c>
+      <c r="R5" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="6">
@@ -1336,34 +1438,52 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>2.239486935098193</v>
+        <v>2.239486928095983</v>
       </c>
       <c r="D6" t="n">
-        <v>5.404955343339308</v>
+        <v>5.404955317136278</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08860693918148767</v>
+        <v>0.08860694211732056</v>
       </c>
       <c r="F6" t="n">
-        <v>1.05963246962187</v>
+        <v>1.05963245487565</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.06668778405841</v>
+        <v>-14.06668769325929</v>
       </c>
       <c r="H6" t="n">
-        <v>1.890858264557189</v>
+        <v>1.890858260594919</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1183329851341352</v>
+        <v>0.1183329833873753</v>
       </c>
       <c r="J6" t="n">
-        <v>1.768609085023827</v>
+        <v>1.76860906893471</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01205916950312023</v>
+        <v>0.01205917006605925</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4359339888131644</v>
+        <v>0.4359339722213595</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.07108994112943849</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.09509450476716766</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.1602318982286365</v>
+      </c>
+      <c r="P6" t="n">
+        <v>13.29080942363916</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>24.13175118564331</v>
+      </c>
+      <c r="R6" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="7">
@@ -1374,34 +1494,52 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>1.740160980100923</v>
+        <v>1.740160977967293</v>
       </c>
       <c r="D7" t="n">
-        <v>4.206015016362072</v>
+        <v>4.206015020607833</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05069173145267744</v>
+        <v>0.05069173415472489</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7049257397309512</v>
+        <v>0.704925733772152</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2499451448776479</v>
+        <v>0.2499451498330499</v>
       </c>
       <c r="H7" t="n">
-        <v>-9.802448199208973</v>
+        <v>-9.80244818201561</v>
       </c>
       <c r="I7" t="n">
-        <v>0.06161026181387065</v>
+        <v>0.06161026218143156</v>
       </c>
       <c r="J7" t="n">
-        <v>1.336382945682082</v>
+        <v>1.336382935099743</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00699144590759195</v>
+        <v>0.006991446352086735</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2988466354416683</v>
+        <v>0.2988466270796802</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.1020153314183985</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1128717816550745</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1586894116448473</v>
+      </c>
+      <c r="P7" t="n">
+        <v>119.3426429558143</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>176.9246153558921</v>
+      </c>
+      <c r="R7" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="8">
@@ -1412,34 +1550,52 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>2.193410779733665</v>
+        <v>2.193410779162234</v>
       </c>
       <c r="D8" t="n">
-        <v>5.831649839482687</v>
+        <v>5.831649809714871</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1020277380297818</v>
+        <v>0.1020277419339374</v>
       </c>
       <c r="F8" t="n">
-        <v>1.223382722638954</v>
+        <v>1.223382707314479</v>
       </c>
       <c r="G8" t="n">
-        <v>0.521645994411313</v>
+        <v>0.5216459952734455</v>
       </c>
       <c r="H8" t="n">
-        <v>2.054647773298694</v>
+        <v>2.054647774240892</v>
       </c>
       <c r="I8" t="n">
-        <v>-16.82159279982926</v>
+        <v>-16.82159270741669</v>
       </c>
       <c r="J8" t="n">
-        <v>1.966965021429772</v>
+        <v>1.966965003315075</v>
       </c>
       <c r="K8" t="n">
-        <v>0.01791780791923031</v>
+        <v>0.01791780869043725</v>
       </c>
       <c r="L8" t="n">
-        <v>0.5457413845012178</v>
+        <v>0.5457413647161191</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.05944740295365117</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.07381018990052726</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.147371322421675</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.340142309876865</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5.075501839682988</v>
+      </c>
+      <c r="R8" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="9">
@@ -1450,34 +1606,52 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>1.620572892196893</v>
+        <v>1.620572897173798</v>
       </c>
       <c r="D9" t="n">
-        <v>4.11655685110253</v>
+        <v>4.11655687053884</v>
       </c>
       <c r="E9" t="n">
-        <v>0.04852262817683081</v>
+        <v>0.04852263112518812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7224314811537268</v>
+        <v>0.7224314781706661</v>
       </c>
       <c r="G9" t="n">
-        <v>0.235535565047451</v>
+        <v>0.235535571592255</v>
       </c>
       <c r="H9" t="n">
-        <v>1.346386776317128</v>
+        <v>1.346386785800887</v>
       </c>
       <c r="I9" t="n">
-        <v>0.05942254144582516</v>
+        <v>0.05942254211494506</v>
       </c>
       <c r="J9" t="n">
-        <v>-8.176951939555787</v>
+        <v>-8.176951973550093</v>
       </c>
       <c r="K9" t="n">
-        <v>0.007177884416303537</v>
+        <v>0.007177884917055422</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2600546971770525</v>
+        <v>0.2600546919063123</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.1222949582233931</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.122831342579332</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.1789406072754205</v>
+      </c>
+      <c r="P9" t="n">
+        <v>128.9082019218388</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>200.6267279926679</v>
+      </c>
+      <c r="R9" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="10">
@@ -1488,34 +1662,52 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>2.347204447838503</v>
+        <v>2.347204443067709</v>
       </c>
       <c r="D10" t="n">
-        <v>6.228359988559768</v>
+        <v>6.228359945610176</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1124319211301631</v>
+        <v>0.112431924850161</v>
       </c>
       <c r="F10" t="n">
-        <v>1.303303897582796</v>
+        <v>1.303303879364693</v>
       </c>
       <c r="G10" t="n">
-        <v>0.438091461943979</v>
+        <v>0.438091464749942</v>
       </c>
       <c r="H10" t="n">
-        <v>1.921448118513919</v>
+        <v>1.921448121163716</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1476597775068544</v>
+        <v>0.1476597754914193</v>
       </c>
       <c r="J10" t="n">
-        <v>1.958029400078238</v>
+        <v>1.958029385594245</v>
       </c>
       <c r="K10" t="n">
-        <v>-16.25019868592892</v>
+        <v>-16.25019858632001</v>
       </c>
       <c r="L10" t="n">
-        <v>0.4557669310733034</v>
+        <v>0.4557669154370121</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.06153770950478322</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.06375544468994562</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.1544833543232652</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.2452821344930747</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.6581084566378368</v>
+      </c>
+      <c r="R10" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
     <row r="11">
@@ -1526,34 +1718,52 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>2.196895420151962</v>
+        <v>2.196895424205404</v>
       </c>
       <c r="D11" t="n">
-        <v>5.412702036661822</v>
+        <v>5.412702031753545</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08011425879528768</v>
+        <v>0.08011426289848267</v>
       </c>
       <c r="F11" t="n">
-        <v>1.133726253798989</v>
+        <v>1.133726242194815</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3659588408325053</v>
+        <v>0.365958845998184</v>
       </c>
       <c r="H11" t="n">
-        <v>1.897903617930126</v>
+        <v>1.897903622245031</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1039269887247838</v>
+        <v>0.1039269886736618</v>
       </c>
       <c r="J11" t="n">
-        <v>1.639274083001008</v>
+        <v>1.639274074844083</v>
       </c>
       <c r="K11" t="n">
-        <v>0.01053190500995038</v>
+        <v>0.01053190562232395</v>
       </c>
       <c r="L11" t="n">
-        <v>-12.65511083849442</v>
+        <v>-12.65511083042468</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.07901945809876733</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.07907251700400975</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.1701454777958104</v>
+      </c>
+      <c r="P11" t="n">
+        <v>13.16467185639985</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>31.43607776573261</v>
+      </c>
+      <c r="R11" t="n">
+        <v>-1338.143951946147</v>
       </c>
     </row>
   </sheetData>
